--- a/data/trans_orig/P21D_1_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D_1_R-Provincia-trans_orig.xlsx
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5665</v>
+        <v>5119</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.004073502976527804</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01590478445652168</v>
+        <v>0.01437059767714469</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4738</v>
+        <v>4529</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.002046439053965248</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.006683132696140581</v>
+        <v>0.006388268501910685</v>
       </c>
     </row>
     <row r="23">
@@ -1831,7 +1831,7 @@
         <v>354728</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>350514</v>
+        <v>351060</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>356179</v>
@@ -1840,7 +1840,7 @@
         <v>0.9959264970234721</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.984095215543479</v>
+        <v>0.9856294023228553</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -1852,7 +1852,7 @@
         <v>707535</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>704248</v>
+        <v>704457</v>
       </c>
       <c r="T23" s="5" t="n">
         <v>708986</v>
@@ -1861,7 +1861,7 @@
         <v>0.9979535609460348</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9933168673038598</v>
+        <v>0.9936117314980891</v>
       </c>
       <c r="W23" s="6" t="n">
         <v>1</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>5147</v>
+        <v>4521</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0008550102495476257</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.003032907023771108</v>
+        <v>0.002664166611066165</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5706</v>
+        <v>4462</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0004443504841885753</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.00174751727754155</v>
+        <v>0.001366514325174383</v>
       </c>
     </row>
     <row r="29">
@@ -2201,16 +2201,16 @@
         <v>1695485</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1691789</v>
+        <v>1692415</v>
       </c>
       <c r="M29" s="5" t="n">
         <v>1696936</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9991449897504524</v>
+        <v>0.9991449897504525</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9969670929762289</v>
+        <v>0.9973358333889338</v>
       </c>
       <c r="P29" s="6" t="n">
         <v>1</v>
@@ -2222,7 +2222,7 @@
         <v>3263759</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3259504</v>
+        <v>3260748</v>
       </c>
       <c r="T29" s="5" t="n">
         <v>3265210</v>
@@ -2231,7 +2231,7 @@
         <v>0.9995556495158114</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9982524827224583</v>
+        <v>0.9986334856748259</v>
       </c>
       <c r="W29" s="6" t="n">
         <v>1</v>
